--- a/src/main/resources/data/deleteFilter.xlsx
+++ b/src/main/resources/data/deleteFilter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>title</t>
   </si>
@@ -91,7 +91,7 @@
     <t>{"projectId":1334,"graphId":2497,"id":921}</t>
   </si>
   <si>
-    <t>无权访问</t>
+    <t>无权</t>
   </si>
   <si>
     <t>f-100</t>
@@ -103,13 +103,16 @@
     <t>{"projectId":1426,"graphId":2837,"id":1685}</t>
   </si>
   <si>
+    <t>不属于此项目</t>
+  </si>
+  <si>
+    <t>图分析视图-deleteFilter-项目下不存在的标签不能操作</t>
+  </si>
+  <si>
+    <t>{"projectId":1426,"graphId":2772,"id":981}</t>
+  </si>
+  <si>
     <t>无权操作</t>
-  </si>
-  <si>
-    <t>图分析视图-deleteFilter-项目下不存在的标签不能操作</t>
-  </si>
-  <si>
-    <t>{"projectId":1426,"graphId":2772,"id":981}</t>
   </si>
   <si>
     <t>图分析视图-deleteFilter-不存在的过滤器流程id</t>
@@ -123,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -164,6 +167,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -179,14 +213,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,17 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,75 +303,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -334,114 +337,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,13 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,43 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +613,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -651,46 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,148 +702,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,7 +2062,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2226,7 +2229,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="8">
-        <v>401</v>
+        <v>90009</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -2246,7 +2249,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
@@ -2267,7 +2270,7 @@
         <v>90009</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -2276,16 +2279,16 @@
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8">
         <v>90009</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
